--- a/Documentos/Levantamento de Requisitos.xlsx
+++ b/Documentos/Levantamento de Requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo Braga\Desktop\PI - Terceiro Semestre\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo Braga\Desktop\LetsGoFour\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,19 +397,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -467,6 +455,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A3" sqref="A3:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,475 +775,476 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="9" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="13">
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="27" t="s">
+      <c r="D9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="27" t="s">
+      <c r="D12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="26" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="26" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="26" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="13">
         <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="26" t="s">
+      <c r="E26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="15">
         <v>24</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="28" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="24" t="s">
         <v>38</v>
       </c>
     </row>
